--- a/team_specific_matrix/Bradley_B.xlsx
+++ b/team_specific_matrix/Bradley_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2241379310344828</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="C2">
-        <v>0.5258620689655172</v>
+        <v>0.5469798657718121</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01293103448275862</v>
+        <v>0.01677852348993289</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1422413793103448</v>
+        <v>0.1375838926174497</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09482758620689655</v>
+        <v>0.08389261744966443</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007936507936507936</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="C3">
-        <v>0.007936507936507936</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01587301587301587</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7380952380952381</v>
+        <v>0.7485029940119761</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2301587301587301</v>
+        <v>0.2155688622754491</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6904761904761905</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3095238095238095</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06289308176100629</v>
+        <v>0.05759162303664921</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01257861635220126</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03144654088050314</v>
+        <v>0.03664921465968586</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2767295597484277</v>
+        <v>0.2774869109947644</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01886792452830189</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1635220125786163</v>
+        <v>0.1465968586387434</v>
       </c>
       <c r="R6">
-        <v>0.06918238993710692</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="S6">
-        <v>0.3647798742138365</v>
+        <v>0.3769633507853403</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1307692307692308</v>
+        <v>0.11875</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03076923076923077</v>
+        <v>0.03125</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07692307692307693</v>
+        <v>0.0625</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1153846153846154</v>
+        <v>0.1125</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1384615384615385</v>
+        <v>0.13125</v>
       </c>
       <c r="R7">
-        <v>0.1230769230769231</v>
+        <v>0.11875</v>
       </c>
       <c r="S7">
-        <v>0.3846153846153846</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07317073170731707</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02168021680216802</v>
+        <v>0.02036199095022624</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06775067750677506</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08130081300813008</v>
+        <v>0.1018099547511312</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01897018970189702</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1653116531165312</v>
+        <v>0.167420814479638</v>
       </c>
       <c r="R8">
-        <v>0.0948509485094851</v>
+        <v>0.09276018099547512</v>
       </c>
       <c r="S8">
-        <v>0.4769647696476965</v>
+        <v>0.4638009049773756</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09844559585492228</v>
+        <v>0.1174089068825911</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0155440414507772</v>
+        <v>0.01619433198380567</v>
       </c>
       <c r="E9">
-        <v>0.005181347150259068</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="F9">
-        <v>0.07772020725388601</v>
+        <v>0.06072874493927125</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08808290155440414</v>
+        <v>0.0931174089068826</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005181347150259068</v>
+        <v>0.01214574898785425</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1450777202072539</v>
+        <v>0.1336032388663968</v>
       </c>
       <c r="R9">
-        <v>0.09844559585492228</v>
+        <v>0.08906882591093117</v>
       </c>
       <c r="S9">
-        <v>0.4663212435233161</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1111111111111111</v>
+        <v>0.1157804459691252</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02832244008714597</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="E10">
-        <v>0.005446623093681918</v>
+        <v>0.004288164665523156</v>
       </c>
       <c r="F10">
-        <v>0.06100217864923747</v>
+        <v>0.06775300171526587</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1209150326797386</v>
+        <v>0.1217838765008576</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.006535947712418301</v>
+        <v>0.007718696397941681</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1917211328976035</v>
+        <v>0.1921097770154374</v>
       </c>
       <c r="R10">
-        <v>0.08714596949891068</v>
+        <v>0.07890222984562607</v>
       </c>
       <c r="S10">
-        <v>0.3877995642701525</v>
+        <v>0.3833619210977702</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.00510204081632653</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="G11">
-        <v>0.1224489795918367</v>
+        <v>0.1387755102040816</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1428571428571428</v>
+        <v>0.1469387755102041</v>
       </c>
       <c r="K11">
-        <v>0.1581632653061225</v>
+        <v>0.1755102040816326</v>
       </c>
       <c r="L11">
-        <v>0.5612244897959183</v>
+        <v>0.5265306122448979</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01020408163265306</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7478260869565218</v>
+        <v>0.7518248175182481</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1478260869565217</v>
+        <v>0.1386861313868613</v>
       </c>
       <c r="K12">
-        <v>0.01739130434782609</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="L12">
-        <v>0.03478260869565217</v>
+        <v>0.05109489051094891</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05217391304347826</v>
+        <v>0.04379562043795621</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7352941176470589</v>
+        <v>0.725</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2058823529411765</v>
+        <v>0.225</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05882352941176471</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01840490797546012</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2392638036809816</v>
+        <v>0.2107843137254902</v>
       </c>
       <c r="I15">
-        <v>0.09202453987730061</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="J15">
-        <v>0.294478527607362</v>
+        <v>0.3088235294117647</v>
       </c>
       <c r="K15">
-        <v>0.06134969325153374</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0245398773006135</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08588957055214724</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1840490797546012</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01273885350318471</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1528662420382166</v>
+        <v>0.1557788944723618</v>
       </c>
       <c r="I16">
-        <v>0.1273885350318471</v>
+        <v>0.1206030150753769</v>
       </c>
       <c r="J16">
-        <v>0.4012738853503185</v>
+        <v>0.407035175879397</v>
       </c>
       <c r="K16">
-        <v>0.09554140127388536</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03821656050955414</v>
+        <v>0.03517587939698492</v>
       </c>
       <c r="N16">
-        <v>0.006369426751592357</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="O16">
-        <v>0.05095541401273886</v>
+        <v>0.06030150753768844</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1146496815286624</v>
+        <v>0.1105527638190955</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.006493506493506494</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1623376623376623</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="I17">
-        <v>0.1818181818181818</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="J17">
-        <v>0.3766233766233766</v>
+        <v>0.3941798941798942</v>
       </c>
       <c r="K17">
-        <v>0.06818181818181818</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01623376623376623</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0487012987012987</v>
+        <v>0.04497354497354497</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1396103896103896</v>
+        <v>0.126984126984127</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0124223602484472</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1801242236024845</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="I18">
-        <v>0.1055900621118012</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J18">
-        <v>0.4099378881987578</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="K18">
-        <v>0.124223602484472</v>
+        <v>0.1216931216931217</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03726708074534162</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04968944099378882</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08074534161490683</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01860920666013712</v>
+        <v>0.0168</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2233104799216454</v>
+        <v>0.2184</v>
       </c>
       <c r="I19">
-        <v>0.08619000979431929</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="J19">
-        <v>0.3633692458374143</v>
+        <v>0.3696</v>
       </c>
       <c r="K19">
-        <v>0.0920666013712047</v>
+        <v>0.092</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01469147894221352</v>
+        <v>0.0144</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07835455435847209</v>
+        <v>0.0784</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1234084231145935</v>
+        <v>0.1152</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Bradley_B.xlsx
+++ b/team_specific_matrix/Bradley_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2147651006711409</v>
+        <v>0.2140575079872205</v>
       </c>
       <c r="C2">
-        <v>0.5469798657718121</v>
+        <v>0.549520766773163</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01677852348993289</v>
+        <v>0.01597444089456869</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1375838926174497</v>
+        <v>0.1373801916932907</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08389261744966443</v>
+        <v>0.08306709265175719</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01197604790419162</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="C3">
-        <v>0.005988023952095809</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01796407185628742</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7485029940119761</v>
+        <v>0.7262569832402235</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2155688622754491</v>
+        <v>0.223463687150838</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6923076923076923</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3076923076923077</v>
+        <v>0.2962962962962963</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05759162303664921</v>
+        <v>0.05741626794258373</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01047120418848168</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03664921465968586</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2774869109947644</v>
+        <v>0.277511961722488</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02094240837696335</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1465968586387434</v>
+        <v>0.1435406698564593</v>
       </c>
       <c r="R6">
-        <v>0.07329842931937172</v>
+        <v>0.07655502392344497</v>
       </c>
       <c r="S6">
-        <v>0.3769633507853403</v>
+        <v>0.3779904306220095</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.11875</v>
+        <v>0.115606936416185</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03125</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0625</v>
+        <v>0.06936416184971098</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1125</v>
+        <v>0.1271676300578035</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.13125</v>
+        <v>0.1329479768786127</v>
       </c>
       <c r="R7">
-        <v>0.11875</v>
+        <v>0.1098265895953757</v>
       </c>
       <c r="S7">
-        <v>0.425</v>
+        <v>0.4161849710982659</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07692307692307693</v>
+        <v>0.07610993657505286</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02036199095022624</v>
+        <v>0.02114164904862579</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05882352941176471</v>
+        <v>0.06342494714587738</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1018099547511312</v>
+        <v>0.09936575052854123</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01809954751131222</v>
+        <v>0.01691331923890063</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.167420814479638</v>
+        <v>0.1649048625792812</v>
       </c>
       <c r="R8">
-        <v>0.09276018099547512</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S8">
-        <v>0.4638009049773756</v>
+        <v>0.46723044397463</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1174089068825911</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01619433198380567</v>
+        <v>0.01915708812260536</v>
       </c>
       <c r="E9">
-        <v>0.004048582995951417</v>
+        <v>0.003831417624521073</v>
       </c>
       <c r="F9">
-        <v>0.06072874493927125</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0931174089068826</v>
+        <v>0.09961685823754789</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01214574898785425</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1336032388663968</v>
+        <v>0.1340996168582375</v>
       </c>
       <c r="R9">
-        <v>0.08906882591093117</v>
+        <v>0.0842911877394636</v>
       </c>
       <c r="S9">
-        <v>0.4736842105263158</v>
+        <v>0.475095785440613</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1157804459691252</v>
+        <v>0.1135091926458833</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02830188679245283</v>
+        <v>0.026378896882494</v>
       </c>
       <c r="E10">
-        <v>0.004288164665523156</v>
+        <v>0.003996802557953637</v>
       </c>
       <c r="F10">
-        <v>0.06775300171526587</v>
+        <v>0.06554756195043965</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1217838765008576</v>
+        <v>0.1239008792965628</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.007718696397941681</v>
+        <v>0.007993605115907274</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1921097770154374</v>
+        <v>0.193445243804956</v>
       </c>
       <c r="R10">
-        <v>0.07890222984562607</v>
+        <v>0.07753796962430055</v>
       </c>
       <c r="S10">
-        <v>0.3833619210977702</v>
+        <v>0.3876898481215028</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.004081632653061225</v>
+        <v>0.003759398496240601</v>
       </c>
       <c r="G11">
-        <v>0.1387755102040816</v>
+        <v>0.1353383458646616</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1469387755102041</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K11">
-        <v>0.1755102040816326</v>
+        <v>0.1729323308270677</v>
       </c>
       <c r="L11">
-        <v>0.5265306122448979</v>
+        <v>0.5375939849624061</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00816326530612245</v>
+        <v>0.007518796992481203</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7518248175182481</v>
+        <v>0.7549668874172185</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1386861313868613</v>
+        <v>0.1390728476821192</v>
       </c>
       <c r="K12">
-        <v>0.0145985401459854</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="L12">
-        <v>0.05109489051094891</v>
+        <v>0.04635761589403974</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04379562043795621</v>
+        <v>0.04635761589403974</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.725</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.225</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0196078431372549</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2107843137254902</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="I15">
-        <v>0.09313725490196079</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="J15">
-        <v>0.3088235294117647</v>
+        <v>0.3105022831050228</v>
       </c>
       <c r="K15">
-        <v>0.06862745098039216</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0196078431372549</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08333333333333333</v>
+        <v>0.0867579908675799</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.196078431372549</v>
+        <v>0.1917808219178082</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01005025125628141</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1557788944723618</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="I16">
-        <v>0.1206030150753769</v>
+        <v>0.125</v>
       </c>
       <c r="J16">
-        <v>0.407035175879397</v>
+        <v>0.3990384615384616</v>
       </c>
       <c r="K16">
-        <v>0.09547738693467336</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03517587939698492</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="N16">
-        <v>0.005025125628140704</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="O16">
-        <v>0.06030150753768844</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1105527638190955</v>
+        <v>0.1105769230769231</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.005291005291005291</v>
+        <v>0.007389162561576354</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1693121693121693</v>
+        <v>0.1773399014778325</v>
       </c>
       <c r="I17">
-        <v>0.1798941798941799</v>
+        <v>0.1699507389162561</v>
       </c>
       <c r="J17">
-        <v>0.3941798941798942</v>
+        <v>0.3940886699507389</v>
       </c>
       <c r="K17">
-        <v>0.06349206349206349</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01587301587301587</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04497354497354497</v>
+        <v>0.04679802955665024</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.126984126984127</v>
+        <v>0.125615763546798</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01058201058201058</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1746031746031746</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I18">
-        <v>0.1111111111111111</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="J18">
-        <v>0.4232804232804233</v>
+        <v>0.4191919191919192</v>
       </c>
       <c r="K18">
-        <v>0.1216931216931217</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03703703703703703</v>
+        <v>0.03535353535353535</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07407407407407407</v>
+        <v>0.07575757575757576</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0168</v>
+        <v>0.01776461880088823</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2184</v>
+        <v>0.2131754256106588</v>
       </c>
       <c r="I19">
-        <v>0.09520000000000001</v>
+        <v>0.09474463360473723</v>
       </c>
       <c r="J19">
-        <v>0.3696</v>
+        <v>0.3671354552183568</v>
       </c>
       <c r="K19">
-        <v>0.092</v>
+        <v>0.09474463360473723</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0144</v>
+        <v>0.01406365655070318</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0784</v>
+        <v>0.07920059215396003</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1152</v>
+        <v>0.1191709844559585</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Bradley_B.xlsx
+++ b/team_specific_matrix/Bradley_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2140575079872205</v>
+        <v>0.2085889570552147</v>
       </c>
       <c r="C2">
-        <v>0.549520766773163</v>
+        <v>0.5613496932515337</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01597444089456869</v>
+        <v>0.01533742331288344</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1373801916932907</v>
+        <v>0.1349693251533742</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08306709265175719</v>
+        <v>0.07975460122699386</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0111731843575419</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="C3">
-        <v>0.01675977653631285</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0223463687150838</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7262569832402235</v>
+        <v>0.7382198952879581</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.223463687150838</v>
+        <v>0.2094240837696335</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05741626794258373</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009569377990430622</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03827751196172249</v>
+        <v>0.03686635944700461</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.277511961722488</v>
+        <v>0.271889400921659</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01913875598086124</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1435406698564593</v>
+        <v>0.1382488479262673</v>
       </c>
       <c r="R6">
-        <v>0.07655502392344497</v>
+        <v>0.07834101382488479</v>
       </c>
       <c r="S6">
-        <v>0.3779904306220095</v>
+        <v>0.3732718894009217</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.115606936416185</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02890173410404624</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06936416184971098</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1271676300578035</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1329479768786127</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="R7">
-        <v>0.1098265895953757</v>
+        <v>0.1073446327683616</v>
       </c>
       <c r="S7">
-        <v>0.4161849710982659</v>
+        <v>0.4180790960451977</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07610993657505286</v>
+        <v>0.07910750507099391</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02114164904862579</v>
+        <v>0.02028397565922921</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06342494714587738</v>
+        <v>0.06085192697768763</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09936575052854123</v>
+        <v>0.101419878296146</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01691331923890063</v>
+        <v>0.01622718052738337</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1649048625792812</v>
+        <v>0.1703853955375254</v>
       </c>
       <c r="R8">
-        <v>0.09090909090909091</v>
+        <v>0.0872210953346856</v>
       </c>
       <c r="S8">
-        <v>0.46723044397463</v>
+        <v>0.4645030425963489</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1149425287356322</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01915708812260536</v>
+        <v>0.01879699248120301</v>
       </c>
       <c r="E9">
-        <v>0.003831417624521073</v>
+        <v>0.003759398496240601</v>
       </c>
       <c r="F9">
-        <v>0.05747126436781609</v>
+        <v>0.05639097744360902</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09961685823754789</v>
+        <v>0.09774436090225563</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01149425287356322</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1340996168582375</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="R9">
-        <v>0.0842911877394636</v>
+        <v>0.08270676691729323</v>
       </c>
       <c r="S9">
-        <v>0.475095785440613</v>
+        <v>0.481203007518797</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1135091926458833</v>
+        <v>0.113953488372093</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.026378896882494</v>
+        <v>0.02558139534883721</v>
       </c>
       <c r="E10">
-        <v>0.003996802557953637</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="F10">
-        <v>0.06554756195043965</v>
+        <v>0.06589147286821706</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1239008792965628</v>
+        <v>0.1201550387596899</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.007993605115907274</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.193445243804956</v>
+        <v>0.1961240310077519</v>
       </c>
       <c r="R10">
-        <v>0.07753796962430055</v>
+        <v>0.07829457364341086</v>
       </c>
       <c r="S10">
-        <v>0.3876898481215028</v>
+        <v>0.3868217054263566</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003759398496240601</v>
+        <v>0.003717472118959108</v>
       </c>
       <c r="G11">
-        <v>0.1353383458646616</v>
+        <v>0.1338289962825279</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1428571428571428</v>
+        <v>0.1412639405204461</v>
       </c>
       <c r="K11">
-        <v>0.1729323308270677</v>
+        <v>0.171003717472119</v>
       </c>
       <c r="L11">
-        <v>0.5375939849624061</v>
+        <v>0.5427509293680297</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007518796992481203</v>
+        <v>0.007434944237918215</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7549668874172185</v>
+        <v>0.7597402597402597</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1390728476821192</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="K12">
-        <v>0.01324503311258278</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="L12">
-        <v>0.04635761589403974</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04635761589403974</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7317073170731707</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2195121951219512</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04878048780487805</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0182648401826484</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2054794520547945</v>
+        <v>0.208695652173913</v>
       </c>
       <c r="I15">
-        <v>0.0958904109589041</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="J15">
-        <v>0.3105022831050228</v>
+        <v>0.3217391304347826</v>
       </c>
       <c r="K15">
-        <v>0.0730593607305936</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0182648401826484</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0867579908675799</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1917808219178082</v>
+        <v>0.1826086956521739</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01442307692307692</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1634615384615385</v>
+        <v>0.167420814479638</v>
       </c>
       <c r="I16">
-        <v>0.125</v>
+        <v>0.1221719457013575</v>
       </c>
       <c r="J16">
-        <v>0.3990384615384616</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="K16">
-        <v>0.09134615384615384</v>
+        <v>0.08597285067873303</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03365384615384615</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="N16">
-        <v>0.004807692307692308</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="O16">
-        <v>0.0576923076923077</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1105769230769231</v>
+        <v>0.1040723981900453</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.007389162561576354</v>
+        <v>0.01184834123222749</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1773399014778325</v>
+        <v>0.1824644549763033</v>
       </c>
       <c r="I17">
-        <v>0.1699507389162561</v>
+        <v>0.1658767772511848</v>
       </c>
       <c r="J17">
-        <v>0.3940886699507389</v>
+        <v>0.3909952606635071</v>
       </c>
       <c r="K17">
-        <v>0.06403940886699508</v>
+        <v>0.06398104265402843</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01477832512315271</v>
+        <v>0.01658767772511848</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04679802955665024</v>
+        <v>0.04739336492890995</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.125615763546798</v>
+        <v>0.1208530805687204</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01515151515151515</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1818181818181818</v>
+        <v>0.187192118226601</v>
       </c>
       <c r="I18">
-        <v>0.1060606060606061</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="J18">
-        <v>0.4191919191919192</v>
+        <v>0.4187192118226601</v>
       </c>
       <c r="K18">
-        <v>0.1212121212121212</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03535353535353535</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04545454545454546</v>
+        <v>0.04926108374384237</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07575757575757576</v>
+        <v>0.07389162561576355</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01776461880088823</v>
+        <v>0.0180635838150289</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2131754256106588</v>
+        <v>0.213150289017341</v>
       </c>
       <c r="I19">
-        <v>0.09474463360473723</v>
+        <v>0.09465317919075145</v>
       </c>
       <c r="J19">
-        <v>0.3671354552183568</v>
+        <v>0.3692196531791908</v>
       </c>
       <c r="K19">
-        <v>0.09474463360473723</v>
+        <v>0.09393063583815028</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01406365655070318</v>
+        <v>0.01372832369942197</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07920059215396003</v>
+        <v>0.07875722543352601</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1191709844559585</v>
+        <v>0.1184971098265896</v>
       </c>
     </row>
   </sheetData>
